--- a/biology/Zoologie/Incilius_tacanensis/Incilius_tacanensis.xlsx
+++ b/biology/Zoologie/Incilius_tacanensis/Incilius_tacanensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Incilius tacanensis est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incilius tacanensis est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre entre 1 500 et 1 700 m d'altitude dans la Sierra Madre de Chiapas[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre entre 1 500 et 1 700 m d'altitude dans la Sierra Madre de Chiapas :
 au Mexique, dans l'extrême Sud-Est du Chiapas ;
 dans le sud-ouest du Guatemala.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, composé de tacan[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le volcan Tacaná[2] (en) au Chiapias, non loin de la frontière avec le Guatemala.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, composé de tacan[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le volcan Tacaná (en) au Chiapias, non loin de la frontière avec le Guatemala.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Smith, 1952 : A new toad from the highlands of Guatemala and Chiapas. Copeia, vol. 1952, no 3, p. 175-177.</t>
         </is>
